--- a/Intro materials and keys/Tentative Schedule (Spring 2025).xlsx
+++ b/Intro materials and keys/Tentative Schedule (Spring 2025).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adamsoliman/Documents/GitHub/Econometrics-Slides/Intro materials and keys/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FECBEF4-A935-7B48-9AFB-0A27DC295D39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2788269-E080-EC48-B54E-EBE541033279}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="700" windowWidth="27040" windowHeight="15180" xr2:uid="{72D0DB20-A265-EC45-9D54-DA8133B16545}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="21">
   <si>
     <t>Introduction</t>
   </si>
@@ -89,9 +89,6 @@
   </si>
   <si>
     <t>Coding Midterm (No Class)</t>
-  </si>
-  <si>
-    <t>In Class Work on Final Projects</t>
   </si>
   <si>
     <t>In Class Theory Midterm</t>
@@ -495,8 +492,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CDCCABB-A2A0-3F43-AD47-2918896FEB07}">
   <dimension ref="A1:B32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -651,7 +648,7 @@
         <f t="shared" si="0"/>
         <v>45720</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="3" t="s">
         <v>17</v>
       </c>
     </row>
@@ -715,7 +712,7 @@
         <v>45743</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="25" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -751,16 +748,16 @@
         <v>45757</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="29" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="7">
+      <c r="A29" s="6">
         <f t="shared" si="0"/>
         <v>45762</v>
       </c>
-      <c r="B29" s="1" t="s">
-        <v>18</v>
+      <c r="B29" s="5" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="30" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.2">

--- a/Intro materials and keys/Tentative Schedule (Spring 2025).xlsx
+++ b/Intro materials and keys/Tentative Schedule (Spring 2025).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adamsoliman/Documents/GitHub/Econometrics-Slides/Intro materials and keys/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2788269-E080-EC48-B54E-EBE541033279}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{776101A3-B4D0-D548-9594-9223E745AA14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="700" windowWidth="27040" windowHeight="15180" xr2:uid="{72D0DB20-A265-EC45-9D54-DA8133B16545}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="22">
   <si>
     <t>Introduction</t>
   </si>
@@ -98,6 +98,9 @@
   </si>
   <si>
     <t>ChatGPT and Coding</t>
+  </si>
+  <si>
+    <t>1-page final project proposal due (No Class)</t>
   </si>
 </sst>
 </file>
@@ -492,8 +495,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CDCCABB-A2A0-3F43-AD47-2918896FEB07}">
   <dimension ref="A1:B32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -541,7 +544,7 @@
         <v>45678</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
@@ -559,7 +562,7 @@
         <v>45685</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
@@ -577,16 +580,16 @@
         <v>45692</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" s="7">
+      <c r="A10" s="6">
         <f t="shared" si="0"/>
         <v>45694</v>
       </c>
-      <c r="B10" s="4" t="s">
-        <v>4</v>
+      <c r="B10" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">

--- a/Intro materials and keys/Tentative Schedule (Spring 2025).xlsx
+++ b/Intro materials and keys/Tentative Schedule (Spring 2025).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adamsoliman/Documents/GitHub/Econometrics-Slides/Intro materials and keys/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{776101A3-B4D0-D548-9594-9223E745AA14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C69CAAC2-4AA0-2246-8AC3-8E7515B517FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="700" windowWidth="27040" windowHeight="15180" xr2:uid="{72D0DB20-A265-EC45-9D54-DA8133B16545}"/>
   </bookViews>
@@ -495,8 +495,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CDCCABB-A2A0-3F43-AD47-2918896FEB07}">
   <dimension ref="A1:B32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/Intro materials and keys/Tentative Schedule (Spring 2025).xlsx
+++ b/Intro materials and keys/Tentative Schedule (Spring 2025).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adamsoliman/Documents/GitHub/Econometrics-Slides/Intro materials and keys/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adamsoliman/Documents/GitHub/IntroEconometrics/Intro materials and keys/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C69CAAC2-4AA0-2246-8AC3-8E7515B517FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55D404F6-BD50-9644-9AE9-5ECF6F074689}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="700" windowWidth="27040" windowHeight="15180" xr2:uid="{72D0DB20-A265-EC45-9D54-DA8133B16545}"/>
+    <workbookView xWindow="-30140" yWindow="1340" windowWidth="27040" windowHeight="15180" xr2:uid="{72D0DB20-A265-EC45-9D54-DA8133B16545}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="21">
   <si>
     <t>Introduction</t>
   </si>
@@ -95,9 +95,6 @@
   </si>
   <si>
     <t>Meet 1-1 to discuss final projects</t>
-  </si>
-  <si>
-    <t>ChatGPT and Coding</t>
   </si>
   <si>
     <t>1-page final project proposal due (No Class)</t>
@@ -197,9 +194,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -237,7 +234,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -343,7 +340,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -485,7 +482,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -495,8 +492,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CDCCABB-A2A0-3F43-AD47-2918896FEB07}">
   <dimension ref="A1:B32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -589,7 +586,7 @@
         <v>45694</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
@@ -678,8 +675,8 @@
         <f t="shared" si="0"/>
         <v>45729</v>
       </c>
-      <c r="B20" s="4" t="s">
-        <v>20</v>
+      <c r="B20" s="3" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="21" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -714,7 +711,7 @@
         <f t="shared" si="0"/>
         <v>45743</v>
       </c>
-      <c r="B24" s="4" t="s">
+      <c r="B24" s="3" t="s">
         <v>19</v>
       </c>
     </row>

--- a/Intro materials and keys/Tentative Schedule (Spring 2025).xlsx
+++ b/Intro materials and keys/Tentative Schedule (Spring 2025).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adamsoliman/Documents/GitHub/IntroEconometrics/Intro materials and keys/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adamsoliman/Documents/GitHub/Econometrics-Slides/Intro materials and keys/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55D404F6-BD50-9644-9AE9-5ECF6F074689}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC75EF5D-676E-6A4E-ACAB-F43005502EF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-30140" yWindow="1340" windowWidth="27040" windowHeight="15180" xr2:uid="{72D0DB20-A265-EC45-9D54-DA8133B16545}"/>
+    <workbookView xWindow="0" yWindow="700" windowWidth="27040" windowHeight="15240" xr2:uid="{72D0DB20-A265-EC45-9D54-DA8133B16545}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -194,9 +194,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -234,7 +234,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -340,7 +340,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -482,7 +482,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -492,8 +492,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CDCCABB-A2A0-3F43-AD47-2918896FEB07}">
   <dimension ref="A1:B32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/Intro materials and keys/Tentative Schedule (Spring 2025).xlsx
+++ b/Intro materials and keys/Tentative Schedule (Spring 2025).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adamsoliman/Documents/GitHub/Econometrics-Slides/Intro materials and keys/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC75EF5D-676E-6A4E-ACAB-F43005502EF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06920172-F586-5840-9708-2FBEC052156D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="700" windowWidth="27040" windowHeight="15240" xr2:uid="{72D0DB20-A265-EC45-9D54-DA8133B16545}"/>
+    <workbookView xWindow="0" yWindow="700" windowWidth="27040" windowHeight="15180" xr2:uid="{72D0DB20-A265-EC45-9D54-DA8133B16545}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="22">
   <si>
     <t>Introduction</t>
   </si>
@@ -98,6 +98,9 @@
   </si>
   <si>
     <t>1-page final project proposal due (No Class)</t>
+  </si>
+  <si>
+    <t>Midterm Review</t>
   </si>
 </sst>
 </file>
@@ -492,8 +495,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CDCCABB-A2A0-3F43-AD47-2918896FEB07}">
   <dimension ref="A1:B32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -667,7 +670,7 @@
         <v>45727</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
@@ -721,7 +724,7 @@
         <v>45748</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="26" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -739,7 +742,7 @@
         <v>45755</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
